--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>peter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>הדס</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,120 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>peter</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>הדס</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>39</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>peter</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>הדס</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
     </row>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,120 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>peter</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>הדס</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>39</t>
         </is>
       </c>
     </row>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>סגן ר' אג"ת</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>משה</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>רמ"ח משאבים</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>אייל</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ראש ענף משמעת</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>הדס</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>ענת</t>
         </is>
       </c>
     </row>

--- a/match.xlsx
+++ b/match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,36 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>סגן ר' אג"ת</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>משה</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>רמ"ח משאבים</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>אייל</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ראש ענף משמעת</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ענת</t>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>הדס</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
